--- a/04 Sent to client/Final Report Instacart.xlsx
+++ b/04 Sent to client/Final Report Instacart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patel/Documents/CF-Data Anaylst Course/portfolio_projects/instacart-python/05 Sent to client/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patel/Documents/CF-Data Anaylst Course/portfolio_projects/instacart-python/04 Sent to client/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5E086C-F596-2C45-AFE0-A99B3E62D6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4AD1B1-1A71-C545-B2FD-247106FAECC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="808" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="312">
   <si>
     <t>Contents:</t>
   </si>
@@ -2098,11 +2098,6 @@
     <t>&lt;=5</t>
   </si>
   <si>
-    <t xml:space="preserve">Mid-range product	$5 to $15	
-Low-range product	&lt;= $5	 
-High-range product	&gt; $15	</t>
-  </si>
-  <si>
     <t>Fig 3.1
 Fig 3.2</t>
   </si>
@@ -2199,17 +2194,6 @@
     <t>Is there a connection between age and family status in terms of ordering habits?</t>
   </si>
   <si>
-    <t>Ordering habits of customers with income less than $200,000 as there is a higer distribution of expenses within customers with income less than 200,000 and generate 99% of revenue</t>
-  </si>
-  <si>
-    <t>Ordering habits of customers with income more than $200,000 as Instacart hold a small market share and have high spending power</t>
-  </si>
-  <si>
-    <t>A greater proportion of customers aged 18 to 40 have an income below $200,000
-A large percentage of customers that have income less than $200,000 are married with kids
-Low income earners top preferences are the same as the overall customer base; produce, dairy eggs, beverages and frozen. The product preferences are also the same as the regular customers as identified in Fig 6.6</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
@@ -2266,20 +2250,8 @@
     <t>Dairy Eggs</t>
   </si>
   <si>
-    <t>Since there is significant difference in spending by customers earning below $200,000 and above $200,000, analyses on ordering habits and contribution to Instacart was conducted onthese groups</t>
-  </si>
-  <si>
     <t>Fig 8.2
 Fig 8.8</t>
-  </si>
-  <si>
-    <t>Fig 8.1
-Fig 8.2
-Fig 8.3
-Fig 8.4
-Fig 8.5
-Fig 8.6
-Fig 8.7</t>
   </si>
   <si>
     <t>first_name: 11,259</t>
@@ -2347,20 +2319,64 @@
   <si>
     <t>For PII purposes the columns where dropped</t>
   </si>
+  <si>
+    <t>Since there is significant difference in spending by customers earning below $75,000, $75,000 to $180,000 and above $180,000, analyses on ordering habits and contribution to Instacart was conducted on these groups</t>
+  </si>
+  <si>
+    <t>Mid income</t>
+  </si>
+  <si>
+    <t>Top 10 Preferred Products of Middle Income Earners</t>
+  </si>
+  <si>
+    <t>Mid-range product:	 $5 to $10	
+Low-range product:	 &lt;= $5	 
+High-range product: &gt; $10</t>
+  </si>
+  <si>
+    <t>Ordering habits of customers with income more than $75,000 and less than $180,000 (middle income earners). There is a higer distribution of expenses and generate 68% of revenue</t>
+  </si>
+  <si>
+    <t>Fig 8.1
+Fig 8.2
+Fig 8.3
+Fig 8.4
+Fig 8.5
+Fig 8.6
+Fig 8.7
+Fig 8.9
+Fig 8.10</t>
+  </si>
+  <si>
+    <t>A greater proportion of customers aged 18 to 40 have an income below $200,000
+A large percentage of customers that have income less than $200,000 are married with kids
+Low income and middle income earners top preferences are the same as the overall customer base; produce, dairy eggs, beverages and frozen. The product preferences are also the same as the regular customers as identified in Fig 6.6</t>
+  </si>
+  <si>
+    <t>Ordering habits of customers with income more than $180,000 as Instacart hold a small market share and have high spending power</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="0.0"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2583,7 +2599,7 @@
       <name val="Adobe Fan Heiti Std B"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2632,8 +2648,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="67">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -3569,19 +3597,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -3608,189 +3651,171 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="6" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="17" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="7" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="17" fillId="7" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="16" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="7" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="16" fillId="7" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="4" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="5" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="4" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="5" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3817,13 +3842,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3883,10 +3908,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3911,10 +3936,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3927,19 +3952,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3957,53 +3982,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="17" fillId="4" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="17" fillId="5" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="17" fillId="9" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="17" fillId="10" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="67" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -21111,56 +21168,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>677332</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>102868</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>142833</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Picture 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76A5F91E-7734-3BFA-FC8D-E553F775A90D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="984249" y="27707167"/>
-          <a:ext cx="9027583" cy="5614414"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -21343,7 +21350,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -21393,7 +21400,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -21443,7 +21450,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -21585,7 +21592,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -21634,7 +21641,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -21684,7 +21691,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -21734,7 +21741,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -21784,7 +21791,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -21834,7 +21841,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -21884,7 +21891,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -21934,7 +21941,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -21964,106 +21971,6 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>448348</xdr:colOff>
-      <xdr:row>746</xdr:row>
-      <xdr:rowOff>32713</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>561225</xdr:colOff>
-      <xdr:row>769</xdr:row>
-      <xdr:rowOff>153363</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97499EDD-E4CA-7B4D-2258-8B3DA9A30DC8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7514166" y="162026986"/>
-          <a:ext cx="5685868" cy="4738832"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>184637</xdr:colOff>
-      <xdr:row>746</xdr:row>
-      <xdr:rowOff>33585</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>943279</xdr:colOff>
-      <xdr:row>770</xdr:row>
-      <xdr:rowOff>82271</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D65BA71F-952B-BE2C-E892-4A18874BDB8B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1293001" y="162027858"/>
-          <a:ext cx="5319096" cy="4886231"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -23957,13 +23864,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>1163</xdr:colOff>
       <xdr:row>172</xdr:row>
-      <xdr:rowOff>110045</xdr:rowOff>
+      <xdr:rowOff>110044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>151192</xdr:colOff>
-      <xdr:row>180</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>68649</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -23978,8 +23885,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8586363" y="35797045"/>
-          <a:ext cx="4125129" cy="1591755"/>
+          <a:off x="8582244" y="36322206"/>
+          <a:ext cx="4211741" cy="2681668"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24116,7 +24023,45 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>is the only department with high range products</a:t>
+            <a:t>is the only department with mid and high range products</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>Personal care</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t> department</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> contains highest number of high range products</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>4. Least number of products are in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:t>bulk </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>department</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400"/>
         </a:p>
@@ -27005,7 +26950,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -27184,7 +27129,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -27757,7 +27702,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -30045,7 +29990,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>income less than 200,000</a:t>
+            <a:t>income between</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 7$75,000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>and</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> $180,000</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-AU" sz="1400" b="1"/>
@@ -30680,15 +30673,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1460501</xdr:colOff>
+      <xdr:colOff>1460500</xdr:colOff>
       <xdr:row>736</xdr:row>
-      <xdr:rowOff>74083</xdr:rowOff>
+      <xdr:rowOff>74082</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>243417</xdr:colOff>
+      <xdr:colOff>572071</xdr:colOff>
       <xdr:row>739</xdr:row>
-      <xdr:rowOff>105833</xdr:rowOff>
+      <xdr:rowOff>205945</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -30703,8 +30696,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8868834" y="146409833"/>
-          <a:ext cx="4529666" cy="666750"/>
+          <a:off x="8531311" y="157268046"/>
+          <a:ext cx="4683553" cy="1024295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -30739,92 +30732,51 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-AU" sz="1400" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>99% of revenue </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>and customers are </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1400" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-AU" sz="1400" b="1" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>low income </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>earners. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1400"/>
-            <a:t> </a:t>
-          </a:r>
+            <a:t>68% of revenue </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1400" baseline="0"/>
+            <a:t>is generated from </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1400" b="1" baseline="0"/>
+            <a:t>middle income earners</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1400" baseline="0"/>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1400" b="1" i="0" u="none" strike="noStrike">
+          <a:endParaRPr lang="en-AU" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1400" baseline="0"/>
+            <a:t>Only </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1400" b="1" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>High income </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>earners do not shop at instacart</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1400"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-AU" sz="1400" baseline="0"/>
+            <a:t>0.6% of customers </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1400" baseline="0"/>
+            <a:t>are </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1400" b="1" baseline="0"/>
+            <a:t>high income earners</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -30834,14 +30786,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1256530</xdr:colOff>
-      <xdr:row>740</xdr:row>
-      <xdr:rowOff>114492</xdr:rowOff>
+      <xdr:row>741</xdr:row>
+      <xdr:rowOff>45845</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>512296</xdr:colOff>
       <xdr:row>742</xdr:row>
-      <xdr:rowOff>40408</xdr:rowOff>
+      <xdr:rowOff>183064</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -30856,8 +30808,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3738803" y="160688674"/>
-          <a:ext cx="918311" cy="318461"/>
+          <a:off x="3750764" y="158544133"/>
+          <a:ext cx="914775" cy="331724"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -30965,11 +30917,11 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="1"/>
-            <a:t>8.3 High</a:t>
+            <a:t>8.3 Low,</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t> and Low Income Earners Department and Product Preferences</a:t>
+            <a:t> Middle and High Income Earners Department and Product Preferences</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" b="1"/>
         </a:p>
@@ -30987,8 +30939,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>82359</xdr:colOff>
-      <xdr:row>781</xdr:row>
-      <xdr:rowOff>22129</xdr:rowOff>
+      <xdr:row>778</xdr:row>
+      <xdr:rowOff>194504</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -31003,8 +30955,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3831745" y="167476825"/>
-          <a:ext cx="7761432" cy="1790122"/>
+          <a:off x="3843706" y="164928712"/>
+          <a:ext cx="7748743" cy="1292549"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -31060,7 +31012,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Low and high income </a:t>
+            <a:t>Low, middle and high income </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-AU" sz="1400" b="0" i="0">
@@ -31125,7 +31077,7 @@
             <a:t>2. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-AU" sz="1400" b="0" i="0">
+            <a:rPr lang="en-AU" sz="1400" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -31134,10 +31086,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Customers with both </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1400" b="1" i="0">
+            <a:t>All</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -31146,7 +31098,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>low and high incomes </a:t>
+            <a:t> income earners </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-AU" sz="1400" b="0" i="0">
@@ -31185,68 +31137,6 @@
             <a:t>from their top 5 preferred departments</a:t>
           </a:r>
         </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-AU" sz="1400" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>3.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1400" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>The top 5 departments popular among low</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1400" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> and high income earners </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-AU" sz="1400"/>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -31254,15 +31144,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1101436</xdr:colOff>
+      <xdr:colOff>1009904</xdr:colOff>
       <xdr:row>770</xdr:row>
-      <xdr:rowOff>42718</xdr:rowOff>
+      <xdr:rowOff>54160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>231357</xdr:colOff>
+      <xdr:colOff>139825</xdr:colOff>
       <xdr:row>771</xdr:row>
-      <xdr:rowOff>133734</xdr:rowOff>
+      <xdr:rowOff>145176</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -31277,8 +31167,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3583709" y="166874536"/>
-          <a:ext cx="792466" cy="310380"/>
+          <a:off x="3504138" y="164341818"/>
+          <a:ext cx="788930" cy="308403"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -31324,16 +31214,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>300182</xdr:colOff>
-      <xdr:row>769</xdr:row>
-      <xdr:rowOff>92363</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>117119</xdr:colOff>
+      <xdr:row>770</xdr:row>
+      <xdr:rowOff>138129</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1176930</xdr:colOff>
-      <xdr:row>770</xdr:row>
-      <xdr:rowOff>183380</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>993867</xdr:colOff>
+      <xdr:row>772</xdr:row>
+      <xdr:rowOff>11760</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -31348,8 +31238,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10194637" y="166704818"/>
-          <a:ext cx="876748" cy="310380"/>
+          <a:off x="8698200" y="164425787"/>
+          <a:ext cx="876748" cy="308405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -31456,7 +31346,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1300" b="1" baseline="0"/>
-            <a:t> 8.7</a:t>
+            <a:t> 8.8</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1300" b="1"/>
         </a:p>
@@ -31527,7 +31417,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1300" b="1" baseline="0"/>
-            <a:t> 8.8</a:t>
+            <a:t> 8.9</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1300" b="1"/>
         </a:p>
@@ -31642,7 +31532,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>. Again, banana is the most frequently purchased product</a:t>
+            <a:t>. Banana</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>is the most frequently purchased product</a:t>
           </a:r>
           <a:endParaRPr lang="en-AU" sz="1400" b="0" baseline="0"/>
         </a:p>
@@ -32973,6 +32887,543 @@
           <a:r>
             <a:rPr lang="en-US" sz="1300" b="1" baseline="0"/>
             <a:t> 7.7</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1300" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>740833</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>177916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1155585</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>125856</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="Group 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{716FDCD9-A0AC-4D23-9964-54F1016AACD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1049752" y="35978186"/>
+          <a:ext cx="7176644" cy="5760193"/>
+          <a:chOff x="969662" y="36046835"/>
+          <a:chExt cx="6856283" cy="5416949"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4451FD01-5A69-6C1C-B1C4-5F2DFC81FFC4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect r="18497"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="969662" y="36046835"/>
+            <a:ext cx="6856283" cy="5416949"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="Picture 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28A1941F-8DA3-CF48-B8AA-77907A5B8C17}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="81011" t="43078" r="-303" b="43882"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6029872" y="40139346"/>
+            <a:ext cx="1622885" cy="706367"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>446216</xdr:colOff>
+      <xdr:row>746</xdr:row>
+      <xdr:rowOff>114414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>617380</xdr:colOff>
+      <xdr:row>770</xdr:row>
+      <xdr:rowOff>57550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50B3A937-0B69-399D-1156-4B6B090CE291}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="755135" y="159608108"/>
+          <a:ext cx="5537200" cy="4737100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>22887</xdr:colOff>
+      <xdr:row>747</xdr:row>
+      <xdr:rowOff>34325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>711318</xdr:colOff>
+      <xdr:row>770</xdr:row>
+      <xdr:rowOff>32265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DF4BB7-EDBB-DBFE-1263-19FCCC6328F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11532977" y="159722523"/>
+          <a:ext cx="5676900" cy="4597400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400451</xdr:colOff>
+      <xdr:row>746</xdr:row>
+      <xdr:rowOff>171622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>770</xdr:row>
+      <xdr:rowOff>114758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B55C4158-D704-41FE-E380-C23054285D07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="2076"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6075406" y="159665316"/>
+          <a:ext cx="5434684" cy="4737100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514864</xdr:colOff>
+      <xdr:row>770</xdr:row>
+      <xdr:rowOff>11441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133054</xdr:colOff>
+      <xdr:row>771</xdr:row>
+      <xdr:rowOff>102459</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="TextBox 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60F33DB0-275E-DA47-B287-52F0BFCEEC6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14347567" y="164299099"/>
+          <a:ext cx="876748" cy="308405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1"/>
+            <a:t>Fig</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1" baseline="0"/>
+            <a:t> 8.7</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1300" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>880991</xdr:colOff>
+      <xdr:row>811</xdr:row>
+      <xdr:rowOff>160179</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1106050</xdr:colOff>
+      <xdr:row>818</xdr:row>
+      <xdr:rowOff>22882</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="TextBox 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E3B0986-96A9-FD4D-95F2-64A722E1F6A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7951802" y="174070089"/>
+          <a:ext cx="4664338" cy="1384415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Middle Income earners</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> buy more </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>produce</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>. Again, banana is the most frequently purchased product</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1400" b="0" baseline="0"/>
+            <a:t>Except for Organic Raspberries, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1400" b="1" baseline="0"/>
+            <a:t>midddle and low income earners</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1400" b="0" baseline="0"/>
+            <a:t> have the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1400" b="1" baseline="0"/>
+            <a:t>same top 10 product preferences</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1270000</xdr:colOff>
+      <xdr:row>820</xdr:row>
+      <xdr:rowOff>125856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400336</xdr:colOff>
+      <xdr:row>822</xdr:row>
+      <xdr:rowOff>45251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="TextBox 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15923DCA-EB98-4948-8122-2858FEC45074}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3764234" y="175992252"/>
+          <a:ext cx="789345" cy="308404"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1"/>
+            <a:t>Fig</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1" baseline="0"/>
+            <a:t> 8.10</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1300" b="1"/>
         </a:p>
@@ -33331,8 +33782,29 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Instacart to focus on advertising campaigns highlighting the top 10 products favored by high-income customers.</a:t>
-          </a:r>
+            <a:t>Instacart to conduct market</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1200" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> research on high-income earners, including their shopping habits, stores and products they buy.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1200" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-AU" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -33368,7 +33840,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Instacart also has a limited market share among customers who live with their parents, siblings, and have children. These are typically young adults with larger families and lower spending power. We recommend for Instacart to expand its bulk product offerings, particularly in the produce, beverages, snacks, frozen, and dairy eggs departments, to cater to this demographic's needs</a:t>
+            <a:t>Instacart also has a limited market share among customers who live with their parents, siblings, and have children. These are typically young adults with larger families and lower spending power. We recommend for Instacart to expand its bulk product offerings, particularly in the produce, dairy eggs, beverages, snacks</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1200" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>frozen departments, to cater to this demographic's needs</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -33971,7 +34467,7 @@
   </cols>
   <sheetData>
     <row r="13" spans="2:2" ht="16">
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="117" t="s">
         <v>0</v>
       </c>
     </row>
@@ -34006,10 +34502,10 @@
       </c>
     </row>
     <row r="22" spans="2:3" ht="59" customHeight="1">
-      <c r="B22" s="187" t="s">
-        <v>305</v>
-      </c>
-      <c r="C22" s="188"/>
+      <c r="B22" s="175" t="s">
+        <v>299</v>
+      </c>
+      <c r="C22" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -34087,41 +34583,41 @@
     </row>
     <row r="5" spans="2:9" ht="16" thickBot="1"/>
     <row r="6" spans="2:9" ht="24.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="143" t="s">
+      <c r="C6" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="143" t="s">
+      <c r="D6" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="144" t="s">
+      <c r="E6" s="132" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="65" thickTop="1">
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="135" t="s">
-        <v>295</v>
-      </c>
-      <c r="E7" s="138" t="s">
+      <c r="D7" s="123" t="s">
+        <v>289</v>
+      </c>
+      <c r="E7" s="126" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="16">
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="140" t="s">
+      <c r="C8" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="128" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="18" t="s">
@@ -34129,28 +34625,28 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="16">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="140"/>
+      <c r="D9" s="128"/>
       <c r="E9" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="49" thickBot="1">
-      <c r="B10" s="141" t="s">
+      <c r="B10" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="134" t="s">
-        <v>294</v>
-      </c>
-      <c r="D10" s="134" t="s">
-        <v>296</v>
-      </c>
-      <c r="E10" s="145" t="s">
+      <c r="C10" s="122" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" s="122" t="s">
+        <v>290</v>
+      </c>
+      <c r="E10" s="133" t="s">
         <v>39</v>
       </c>
     </row>
@@ -34188,44 +34684,44 @@
     </row>
     <row r="5" spans="2:8" ht="16" thickBot="1"/>
     <row r="6" spans="2:8" ht="23" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="142" t="s">
+      <c r="C6" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="142" t="s">
+      <c r="D6" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="168" t="s">
+      <c r="E6" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="143" t="s">
+      <c r="F6" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="169" t="s">
+      <c r="G6" s="157" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="17" thickTop="1">
-      <c r="B7" s="189" t="s">
+      <c r="B7" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="161" t="s">
+      <c r="C7" s="149" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="149" t="s">
+      <c r="F7" s="136"/>
+      <c r="G7" s="137" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="48">
-      <c r="B8" s="190"/>
-      <c r="C8" s="162" t="s">
+      <c r="B8" s="178"/>
+      <c r="C8" s="150" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="10"/>
@@ -34238,76 +34734,76 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="32">
-      <c r="B9" s="190"/>
-      <c r="C9" s="163" t="s">
+      <c r="B9" s="178"/>
+      <c r="C9" s="151" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="153" t="s">
-        <v>308</v>
+      <c r="G9" s="141" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="32">
-      <c r="B10" s="190"/>
-      <c r="C10" s="163" t="s">
+      <c r="B10" s="178"/>
+      <c r="C10" s="151" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="12"/>
       <c r="F10" s="15" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="16">
-      <c r="B11" s="191"/>
-      <c r="C11" s="164" t="s">
+      <c r="B11" s="179"/>
+      <c r="C11" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="150"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="153" t="s">
-        <v>307</v>
+      <c r="D11" s="138"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="141" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="154" t="s">
+      <c r="B12" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="165" t="s">
+      <c r="C12" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="155"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="157" t="s">
-        <v>303</v>
-      </c>
-      <c r="G12" s="158"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="145" t="s">
+        <v>297</v>
+      </c>
+      <c r="G12" s="146"/>
     </row>
     <row r="13" spans="2:8" ht="32">
-      <c r="B13" s="159" t="s">
+      <c r="B13" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="164"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="153" t="s">
+      <c r="C13" s="152"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="141" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="32">
-      <c r="B14" s="192" t="s">
-        <v>297</v>
-      </c>
-      <c r="C14" s="163" t="s">
-        <v>298</v>
+      <c r="B14" s="180" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" s="151" t="s">
+        <v>292</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>31</v>
@@ -34315,13 +34811,13 @@
       <c r="E14" s="12"/>
       <c r="F14" s="5"/>
       <c r="G14" s="11" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="32">
-      <c r="B15" s="190"/>
-      <c r="C15" s="163" t="s">
-        <v>299</v>
+      <c r="B15" s="178"/>
+      <c r="C15" s="151" t="s">
+        <v>293</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>31</v>
@@ -34329,13 +34825,13 @@
       <c r="E15" s="12"/>
       <c r="F15" s="15"/>
       <c r="G15" s="11" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="16">
-      <c r="B16" s="190"/>
-      <c r="C16" s="163" t="s">
-        <v>300</v>
+      <c r="B16" s="178"/>
+      <c r="C16" s="151" t="s">
+        <v>294</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>31</v>
@@ -34347,30 +34843,30 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="16">
-      <c r="B17" s="190"/>
-      <c r="C17" s="166" t="s">
-        <v>301</v>
+      <c r="B17" s="178"/>
+      <c r="C17" s="154" t="s">
+        <v>295</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="146"/>
-      <c r="F17" s="147"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="135"/>
       <c r="G17" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="17" thickBot="1">
-      <c r="B18" s="193"/>
-      <c r="C18" s="167" t="s">
-        <v>302</v>
+      <c r="B18" s="181"/>
+      <c r="C18" s="155" t="s">
+        <v>296</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="160" t="s">
+      <c r="G18" s="148" t="s">
         <v>25</v>
       </c>
     </row>
@@ -34408,184 +34904,184 @@
     </row>
     <row r="5" spans="2:11" ht="16" thickBot="1"/>
     <row r="6" spans="2:11" ht="21.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B6" s="184" t="s">
+      <c r="B6" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="185" t="s">
+      <c r="C6" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="185" t="s">
+      <c r="D6" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="186" t="s">
+      <c r="E6" s="174" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="49" thickTop="1">
-      <c r="B7" s="172" t="s">
+      <c r="B7" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="171" t="s">
+      <c r="C7" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="171" t="s">
+      <c r="D7" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="173" t="s">
+      <c r="E7" s="161" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="48">
-      <c r="B8" s="174" t="s">
+      <c r="B8" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="170" t="s">
+      <c r="C8" s="158" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="170" t="s">
+      <c r="D8" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="175" t="s">
+      <c r="E8" s="163" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="48">
-      <c r="B9" s="174" t="s">
+      <c r="B9" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="170" t="s">
+      <c r="C9" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="170" t="s">
+      <c r="D9" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="176" t="s">
+      <c r="E9" s="164" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="48">
-      <c r="B10" s="174" t="s">
+      <c r="B10" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="170" t="s">
+      <c r="C10" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="170" t="s">
+      <c r="D10" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="175" t="s">
+      <c r="E10" s="163" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="174" t="s">
+      <c r="B11" s="162" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="170" t="s">
+      <c r="C11" s="158" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="170" t="s">
+      <c r="D11" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="177" t="s">
+      <c r="E11" s="165" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="48">
-      <c r="B12" s="174" t="s">
+      <c r="B12" s="162" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="170" t="s">
+      <c r="C12" s="158" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="170" t="s">
+      <c r="D12" s="158" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="178" t="s">
+      <c r="E12" s="166" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="174" t="s">
+      <c r="B13" s="162" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="170" t="s">
+      <c r="C13" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="170" t="s">
+      <c r="D13" s="158" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="179" t="s">
+      <c r="E13" s="167" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="32">
-      <c r="B14" s="174" t="s">
+      <c r="B14" s="162" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="170" t="s">
+      <c r="C14" s="158" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="170" t="s">
+      <c r="D14" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="178" t="s">
+      <c r="E14" s="166" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="174" t="s">
+      <c r="B15" s="162" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="170" t="s">
+      <c r="C15" s="158" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="170" t="s">
+      <c r="D15" s="158" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="177" t="s">
+      <c r="E15" s="165" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="64">
-      <c r="B16" s="174" t="s">
+      <c r="B16" s="162" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="170" t="s">
+      <c r="C16" s="158" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="170" t="s">
+      <c r="D16" s="158" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="178" t="s">
+      <c r="E16" s="166" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="32">
-      <c r="B17" s="174" t="s">
-        <v>304</v>
-      </c>
-      <c r="C17" s="170" t="s">
+      <c r="B17" s="162" t="s">
+        <v>298</v>
+      </c>
+      <c r="C17" s="158" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="170" t="s">
+      <c r="D17" s="158" t="s">
         <v>149</v>
       </c>
-      <c r="E17" s="180" t="s">
+      <c r="E17" s="168" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="33" thickBot="1">
-      <c r="B18" s="181" t="s">
-        <v>304</v>
-      </c>
-      <c r="C18" s="182" t="s">
+      <c r="B18" s="169" t="s">
+        <v>298</v>
+      </c>
+      <c r="C18" s="170" t="s">
         <v>219</v>
       </c>
-      <c r="D18" s="182" t="s">
+      <c r="D18" s="170" t="s">
         <v>220</v>
       </c>
-      <c r="E18" s="183" t="s">
+      <c r="E18" s="171" t="s">
         <v>221</v>
       </c>
     </row>
@@ -34598,10 +35094,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="C1:Q801"/>
+  <dimension ref="C1:Q820"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G734" sqref="G734"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A731" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="H829" sqref="H829"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -34630,7 +35126,7 @@
       </c>
     </row>
     <row r="34" spans="3:16">
-      <c r="C34" s="69"/>
+      <c r="C34" s="60"/>
     </row>
     <row r="35" spans="3:16" ht="17">
       <c r="G35" s="26"/>
@@ -34701,52 +35197,52 @@
       <c r="F53" s="26"/>
     </row>
     <row r="83" spans="7:9" ht="14" customHeight="1"/>
-    <row r="84" spans="7:9" s="99" customFormat="1" ht="25" customHeight="1">
-      <c r="G84" s="208" t="s">
+    <row r="84" spans="7:9" s="89" customFormat="1" ht="25" customHeight="1">
+      <c r="G84" s="182" t="s">
         <v>202</v>
       </c>
-      <c r="H84" s="208"/>
-      <c r="I84" s="208"/>
+      <c r="H84" s="182"/>
+      <c r="I84" s="182"/>
     </row>
     <row r="85" spans="7:9" ht="19">
-      <c r="G85" s="74"/>
-      <c r="H85" s="75" t="s">
+      <c r="G85" s="64"/>
+      <c r="H85" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="I85" s="76" t="s">
+      <c r="I85" s="66" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="86" spans="7:9" ht="40">
-      <c r="G86" s="77" t="s">
+      <c r="G86" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="H86" s="78" t="s">
+      <c r="H86" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="I86" s="79">
+      <c r="I86" s="69">
         <v>21860860</v>
       </c>
     </row>
     <row r="87" spans="7:9" ht="40">
-      <c r="G87" s="77" t="s">
+      <c r="G87" s="67" t="s">
         <v>143</v>
       </c>
       <c r="H87" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="I87" s="79">
+      <c r="I87" s="69">
         <v>10126321</v>
       </c>
     </row>
     <row r="88" spans="7:9" ht="40">
-      <c r="G88" s="77" t="s">
+      <c r="G88" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="H88" s="78" t="s">
+      <c r="H88" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="I88" s="79">
+      <c r="I88" s="69">
         <v>417678</v>
       </c>
     </row>
@@ -34907,10 +35403,10 @@
       <c r="O153" s="23"/>
     </row>
     <row r="154" spans="4:15" ht="19">
-      <c r="D154" s="81" t="s">
+      <c r="D154" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="E154" s="82" t="s">
+      <c r="E154" s="72" t="s">
         <v>170</v>
       </c>
       <c r="G154" s="23"/>
@@ -34922,10 +35418,10 @@
       <c r="O154" s="23"/>
     </row>
     <row r="155" spans="4:15" ht="20">
-      <c r="D155" s="84" t="s">
+      <c r="D155" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="E155" s="83">
+      <c r="E155" s="73">
         <v>472565</v>
       </c>
       <c r="G155" s="23"/>
@@ -34937,10 +35433,10 @@
       <c r="O155" s="23"/>
     </row>
     <row r="156" spans="4:15" ht="40">
-      <c r="D156" s="84" t="s">
+      <c r="D156" s="74" t="s">
         <v>154</v>
       </c>
-      <c r="E156" s="83">
+      <c r="E156" s="73">
         <v>379450</v>
       </c>
       <c r="G156" s="23"/>
@@ -34952,10 +35448,10 @@
       <c r="O156" s="23"/>
     </row>
     <row r="157" spans="4:15" ht="20">
-      <c r="D157" s="84" t="s">
+      <c r="D157" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="E157" s="83">
+      <c r="E157" s="73">
         <v>264683</v>
       </c>
       <c r="G157" s="23"/>
@@ -34967,10 +35463,10 @@
       <c r="O157" s="23"/>
     </row>
     <row r="158" spans="4:15" ht="20">
-      <c r="D158" s="84" t="s">
+      <c r="D158" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="E158" s="83">
+      <c r="E158" s="73">
         <v>241921</v>
       </c>
       <c r="G158" s="23"/>
@@ -34978,16 +35474,16 @@
       <c r="I158" s="23"/>
       <c r="J158" s="23"/>
       <c r="K158" s="50"/>
-      <c r="L158" s="80"/>
+      <c r="L158" s="70"/>
       <c r="M158" s="23"/>
       <c r="N158" s="23"/>
       <c r="O158" s="23"/>
     </row>
     <row r="159" spans="4:15" ht="40">
-      <c r="D159" s="84" t="s">
+      <c r="D159" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="E159" s="83">
+      <c r="E159" s="73">
         <v>213584</v>
       </c>
       <c r="G159" s="23"/>
@@ -34995,16 +35491,16 @@
       <c r="I159" s="23"/>
       <c r="J159" s="23"/>
       <c r="K159" s="50"/>
-      <c r="L159" s="80"/>
+      <c r="L159" s="70"/>
       <c r="M159" s="23"/>
       <c r="N159" s="23"/>
       <c r="O159" s="23"/>
     </row>
     <row r="160" spans="4:15" ht="20">
-      <c r="D160" s="84" t="s">
+      <c r="D160" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="E160" s="83">
+      <c r="E160" s="73">
         <v>176815</v>
       </c>
       <c r="G160" s="23"/>
@@ -35012,16 +35508,16 @@
       <c r="I160" s="23"/>
       <c r="J160" s="23"/>
       <c r="K160" s="50"/>
-      <c r="L160" s="80"/>
+      <c r="L160" s="70"/>
       <c r="M160" s="23"/>
       <c r="N160" s="23"/>
       <c r="O160" s="23"/>
     </row>
     <row r="161" spans="4:15" ht="20">
-      <c r="D161" s="84" t="s">
+      <c r="D161" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="E161" s="83">
+      <c r="E161" s="73">
         <v>152657</v>
       </c>
       <c r="G161" s="23"/>
@@ -35029,16 +35525,16 @@
       <c r="I161" s="23"/>
       <c r="J161" s="23"/>
       <c r="K161" s="50"/>
-      <c r="L161" s="80"/>
+      <c r="L161" s="70"/>
       <c r="M161" s="23"/>
       <c r="N161" s="23"/>
       <c r="O161" s="23"/>
     </row>
     <row r="162" spans="4:15" ht="20">
-      <c r="D162" s="84" t="s">
+      <c r="D162" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="E162" s="83">
+      <c r="E162" s="73">
         <v>142951</v>
       </c>
       <c r="G162" s="23"/>
@@ -35046,16 +35542,16 @@
       <c r="I162" s="23"/>
       <c r="J162" s="23"/>
       <c r="K162" s="50"/>
-      <c r="L162" s="80"/>
+      <c r="L162" s="70"/>
       <c r="M162" s="23"/>
       <c r="N162" s="23"/>
       <c r="O162" s="23"/>
     </row>
     <row r="163" spans="4:15" ht="20">
-      <c r="D163" s="84" t="s">
+      <c r="D163" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="E163" s="83">
+      <c r="E163" s="73">
         <v>140627</v>
       </c>
       <c r="G163" s="23"/>
@@ -35063,16 +35559,16 @@
       <c r="I163" s="23"/>
       <c r="J163" s="23"/>
       <c r="K163" s="50"/>
-      <c r="L163" s="80"/>
+      <c r="L163" s="70"/>
       <c r="M163" s="23"/>
       <c r="N163" s="23"/>
       <c r="O163" s="23"/>
     </row>
     <row r="164" spans="4:15" ht="20">
-      <c r="D164" s="84" t="s">
+      <c r="D164" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="E164" s="83">
+      <c r="E164" s="73">
         <v>137057</v>
       </c>
       <c r="G164" s="23"/>
@@ -35080,16 +35576,16 @@
       <c r="I164" s="23"/>
       <c r="J164" s="23"/>
       <c r="K164" s="50"/>
-      <c r="L164" s="80"/>
+      <c r="L164" s="70"/>
       <c r="M164" s="23"/>
       <c r="N164" s="23"/>
       <c r="O164" s="23"/>
     </row>
     <row r="165" spans="4:15" ht="20">
-      <c r="D165" s="84" t="s">
+      <c r="D165" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="E165" s="83">
+      <c r="E165" s="73">
         <v>113426</v>
       </c>
       <c r="G165" s="23"/>
@@ -35097,7 +35593,7 @@
       <c r="I165" s="23"/>
       <c r="J165" s="23"/>
       <c r="K165" s="50"/>
-      <c r="L165" s="80"/>
+      <c r="L165" s="70"/>
       <c r="M165" s="23"/>
       <c r="N165" s="23"/>
       <c r="O165" s="23"/>
@@ -36928,7 +37424,7 @@
     </row>
     <row r="323" spans="12:12" ht="16">
       <c r="L323" s="47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="324" spans="12:12" ht="16">
@@ -36985,286 +37481,286 @@
       <c r="D405" s="23"/>
     </row>
     <row r="418" spans="3:11" ht="20" customHeight="1">
-      <c r="C418" s="202" t="s">
+      <c r="C418" s="184" t="s">
         <v>175</v>
       </c>
-      <c r="D418" s="202"/>
-      <c r="E418" s="202"/>
-      <c r="F418" s="202"/>
+      <c r="D418" s="184"/>
+      <c r="E418" s="184"/>
+      <c r="F418" s="184"/>
       <c r="G418" s="25"/>
-      <c r="H418" s="202" t="s">
+      <c r="H418" s="184" t="s">
         <v>178</v>
       </c>
-      <c r="I418" s="202"/>
-      <c r="J418" s="202"/>
-      <c r="K418" s="202"/>
+      <c r="I418" s="184"/>
+      <c r="J418" s="184"/>
+      <c r="K418" s="184"/>
     </row>
     <row r="419" spans="3:11" ht="17">
-      <c r="C419" s="85" t="s">
+      <c r="C419" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="D419" s="85" t="s">
+      <c r="D419" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="E419" s="85" t="s">
+      <c r="E419" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="F419" s="85" t="s">
+      <c r="F419" s="75" t="s">
         <v>174</v>
       </c>
       <c r="G419" s="25"/>
-      <c r="H419" s="85" t="s">
+      <c r="H419" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="I419" s="85" t="s">
+      <c r="I419" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="J419" s="85" t="s">
+      <c r="J419" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="K419" s="85" t="s">
+      <c r="K419" s="75" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="420" spans="3:11" ht="18">
-      <c r="C420" s="201" t="s">
-        <v>254</v>
-      </c>
-      <c r="D420" s="95" t="s">
+      <c r="C420" s="183" t="s">
+        <v>253</v>
+      </c>
+      <c r="D420" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="E420" s="87">
+      <c r="E420" s="77">
         <v>233137</v>
       </c>
-      <c r="F420" s="88">
+      <c r="F420" s="78">
         <v>2867585.2</v>
       </c>
       <c r="G420" s="25"/>
-      <c r="H420" s="203" t="s">
-        <v>254</v>
-      </c>
-      <c r="I420" s="95" t="s">
+      <c r="H420" s="185" t="s">
+        <v>253</v>
+      </c>
+      <c r="I420" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="J420" s="87">
+      <c r="J420" s="77">
         <v>155260</v>
       </c>
-      <c r="K420" s="88">
+      <c r="K420" s="78">
         <v>1909698</v>
       </c>
     </row>
     <row r="421" spans="3:11" ht="36">
-      <c r="C421" s="201"/>
-      <c r="D421" s="95" t="s">
+      <c r="C421" s="183"/>
+      <c r="D421" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="E421" s="87">
+      <c r="E421" s="77">
         <v>176251</v>
       </c>
-      <c r="F421" s="88">
+      <c r="F421" s="78">
         <v>1815385.4</v>
       </c>
       <c r="G421" s="25"/>
-      <c r="H421" s="206"/>
-      <c r="I421" s="95" t="s">
+      <c r="H421" s="188"/>
+      <c r="I421" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="J421" s="87">
+      <c r="J421" s="77">
         <v>144304</v>
       </c>
-      <c r="K421" s="88">
+      <c r="K421" s="78">
         <v>1486331.2</v>
       </c>
     </row>
     <row r="422" spans="3:11" ht="18">
-      <c r="C422" s="201"/>
+      <c r="C422" s="183"/>
       <c r="D422" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="E422" s="89">
+      <c r="E422" s="79">
         <v>120510</v>
       </c>
-      <c r="F422" s="90">
+      <c r="F422" s="80">
         <v>879723</v>
       </c>
       <c r="G422" s="25"/>
-      <c r="H422" s="206"/>
+      <c r="H422" s="188"/>
       <c r="I422" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="J422" s="89">
+      <c r="J422" s="79">
         <v>105185</v>
       </c>
-      <c r="K422" s="90">
+      <c r="K422" s="80">
         <v>767850.5</v>
       </c>
     </row>
     <row r="423" spans="3:11" ht="18">
-      <c r="C423" s="201"/>
+      <c r="C423" s="183"/>
       <c r="D423" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="E423" s="91">
+      <c r="E423" s="81">
         <v>118926</v>
       </c>
-      <c r="F423" s="92">
+      <c r="F423" s="82">
         <v>975193.2</v>
       </c>
       <c r="G423" s="25"/>
-      <c r="H423" s="206"/>
+      <c r="H423" s="188"/>
       <c r="I423" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="J423" s="89">
+      <c r="J423" s="79">
         <v>84207</v>
       </c>
-      <c r="K423" s="90">
+      <c r="K423" s="80">
         <v>336828</v>
       </c>
     </row>
     <row r="424" spans="3:11" ht="18">
-      <c r="C424" s="201"/>
+      <c r="C424" s="183"/>
       <c r="D424" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="E424" s="89">
+      <c r="E424" s="79">
         <v>98590</v>
       </c>
-      <c r="F424" s="90">
+      <c r="F424" s="80">
         <v>394360</v>
       </c>
       <c r="G424" s="25"/>
-      <c r="H424" s="206"/>
+      <c r="H424" s="188"/>
       <c r="I424" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="J424" s="91">
+      <c r="J424" s="81">
         <v>79671</v>
       </c>
-      <c r="K424" s="92">
+      <c r="K424" s="82">
         <v>653302.19999999995</v>
       </c>
     </row>
     <row r="425" spans="3:11" ht="18">
-      <c r="C425" s="201"/>
+      <c r="C425" s="183"/>
       <c r="D425" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="E425" s="89">
+      <c r="E425" s="79">
         <v>89695</v>
       </c>
-      <c r="F425" s="90">
+      <c r="F425" s="80">
         <v>565078.5</v>
       </c>
       <c r="G425" s="25"/>
-      <c r="H425" s="204"/>
-      <c r="I425" s="96" t="s">
+      <c r="H425" s="186"/>
+      <c r="I425" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="J425" s="89">
+      <c r="J425" s="79">
         <v>56291</v>
       </c>
-      <c r="K425" s="90">
+      <c r="K425" s="80">
         <v>247680.4</v>
       </c>
     </row>
     <row r="426" spans="3:11" ht="18">
-      <c r="C426" s="201"/>
-      <c r="D426" s="97" t="s">
+      <c r="C426" s="183"/>
+      <c r="D426" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="E426" s="93">
+      <c r="E426" s="83">
         <v>77288</v>
       </c>
-      <c r="F426" s="94">
+      <c r="F426" s="84">
         <v>1082032</v>
       </c>
       <c r="G426" s="25"/>
-      <c r="H426" s="86" t="s">
-        <v>255</v>
-      </c>
-      <c r="I426" s="97" t="s">
+      <c r="H426" s="76" t="s">
+        <v>254</v>
+      </c>
+      <c r="I426" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="J426" s="93">
+      <c r="J426" s="83">
         <v>56273</v>
       </c>
-      <c r="K426" s="94">
+      <c r="K426" s="84">
         <v>720294.44</v>
       </c>
     </row>
     <row r="427" spans="3:11" ht="18">
-      <c r="C427" s="201"/>
-      <c r="D427" s="96" t="s">
+      <c r="C427" s="183"/>
+      <c r="D427" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="E427" s="89">
+      <c r="E427" s="79">
         <v>72026</v>
       </c>
-      <c r="F427" s="90">
+      <c r="F427" s="80">
         <v>93633.8</v>
       </c>
       <c r="G427" s="25"/>
-      <c r="H427" s="203" t="s">
-        <v>254</v>
+      <c r="H427" s="185" t="s">
+        <v>253</v>
       </c>
       <c r="I427" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="J427" s="89">
+      <c r="J427" s="79">
         <v>50398</v>
       </c>
-      <c r="K427" s="90">
+      <c r="K427" s="80">
         <v>317507.40000000002</v>
       </c>
     </row>
     <row r="428" spans="3:11" ht="18">
-      <c r="C428" s="201"/>
-      <c r="D428" s="97" t="s">
+      <c r="C428" s="183"/>
+      <c r="D428" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="E428" s="93">
+      <c r="E428" s="83">
         <v>69502</v>
       </c>
-      <c r="F428" s="94">
+      <c r="F428" s="84">
         <v>1021679.4</v>
       </c>
       <c r="G428" s="25"/>
-      <c r="H428" s="204"/>
-      <c r="I428" s="97" t="s">
+      <c r="H428" s="186"/>
+      <c r="I428" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="J428" s="93">
+      <c r="J428" s="83">
         <v>45155</v>
       </c>
-      <c r="K428" s="94">
+      <c r="K428" s="84">
         <v>663778.5</v>
       </c>
     </row>
     <row r="429" spans="3:11" ht="19">
-      <c r="C429" s="98" t="s">
-        <v>255</v>
+      <c r="C429" s="88" t="s">
+        <v>254</v>
       </c>
       <c r="D429" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="E429" s="89">
+      <c r="E429" s="79">
         <v>62273</v>
       </c>
-      <c r="F429" s="90">
+      <c r="F429" s="80">
         <v>797094.40000000002</v>
       </c>
       <c r="G429" s="25"/>
-      <c r="H429" s="86" t="s">
-        <v>254</v>
+      <c r="H429" s="76" t="s">
+        <v>253</v>
       </c>
       <c r="I429" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="J429" s="91">
+      <c r="J429" s="81">
         <v>44024</v>
       </c>
-      <c r="K429" s="92">
+      <c r="K429" s="82">
         <v>616336</v>
       </c>
     </row>
@@ -37489,49 +37985,49 @@
       <c r="K451" s="23"/>
     </row>
     <row r="452" spans="3:11" ht="17">
-      <c r="C452" s="202" t="s">
+      <c r="C452" s="184" t="s">
         <v>175</v>
       </c>
-      <c r="D452" s="202"/>
-      <c r="E452" s="202"/>
-      <c r="F452" s="202"/>
+      <c r="D452" s="184"/>
+      <c r="E452" s="184"/>
+      <c r="F452" s="184"/>
       <c r="G452" s="25"/>
-      <c r="H452" s="202" t="s">
+      <c r="H452" s="184" t="s">
         <v>178</v>
       </c>
-      <c r="I452" s="202"/>
-      <c r="J452" s="202"/>
-      <c r="K452" s="202"/>
+      <c r="I452" s="184"/>
+      <c r="J452" s="184"/>
+      <c r="K452" s="184"/>
     </row>
     <row r="453" spans="3:11" ht="18">
-      <c r="C453" s="85" t="s">
+      <c r="C453" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="D453" s="85" t="s">
+      <c r="D453" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="E453" s="85" t="s">
+      <c r="E453" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="F453" s="85" t="s">
+      <c r="F453" s="75" t="s">
         <v>174</v>
       </c>
       <c r="G453" s="25"/>
-      <c r="H453" s="85" t="s">
+      <c r="H453" s="75" t="s">
         <v>172</v>
       </c>
       <c r="I453" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="J453" s="85" t="s">
+      <c r="J453" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="K453" s="85" t="s">
+      <c r="K453" s="75" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="454" spans="3:11" ht="36">
-      <c r="C454" s="207" t="s">
+      <c r="C454" s="190" t="s">
         <v>180</v>
       </c>
       <c r="D454" s="32" t="s">
@@ -37540,11 +38036,11 @@
       <c r="E454" s="31">
         <v>1</v>
       </c>
-      <c r="F454" s="90">
+      <c r="F454" s="80">
         <v>24.5</v>
       </c>
       <c r="G454" s="25"/>
-      <c r="H454" s="203" t="s">
+      <c r="H454" s="185" t="s">
         <v>180</v>
       </c>
       <c r="I454" s="32" t="s">
@@ -37553,224 +38049,224 @@
       <c r="J454" s="31">
         <v>1</v>
       </c>
-      <c r="K454" s="90">
+      <c r="K454" s="80">
         <v>24.8</v>
       </c>
     </row>
     <row r="455" spans="3:11" ht="36">
-      <c r="C455" s="207"/>
+      <c r="C455" s="190"/>
       <c r="D455" s="32" t="s">
         <v>182</v>
       </c>
       <c r="E455" s="31">
         <v>1</v>
       </c>
-      <c r="F455" s="90">
+      <c r="F455" s="80">
         <v>23.1</v>
       </c>
       <c r="G455" s="25"/>
-      <c r="H455" s="206"/>
+      <c r="H455" s="188"/>
       <c r="I455" s="32" t="s">
         <v>192</v>
       </c>
       <c r="J455" s="31">
         <v>1</v>
       </c>
-      <c r="K455" s="90">
+      <c r="K455" s="80">
         <v>24.5</v>
       </c>
     </row>
     <row r="456" spans="3:11" ht="18">
-      <c r="C456" s="207"/>
+      <c r="C456" s="190"/>
       <c r="D456" s="32" t="s">
         <v>183</v>
       </c>
       <c r="E456" s="31">
         <v>1</v>
       </c>
-      <c r="F456" s="90">
+      <c r="F456" s="80">
         <v>20.5</v>
       </c>
       <c r="G456" s="25"/>
-      <c r="H456" s="206"/>
+      <c r="H456" s="188"/>
       <c r="I456" s="32" t="s">
         <v>193</v>
       </c>
       <c r="J456" s="31">
         <v>1</v>
       </c>
-      <c r="K456" s="90">
+      <c r="K456" s="80">
         <v>23.9</v>
       </c>
     </row>
     <row r="457" spans="3:11" ht="36">
-      <c r="C457" s="207"/>
+      <c r="C457" s="190"/>
       <c r="D457" s="32" t="s">
         <v>184</v>
       </c>
       <c r="E457" s="31">
         <v>1</v>
       </c>
-      <c r="F457" s="90">
+      <c r="F457" s="80">
         <v>20.3</v>
       </c>
       <c r="G457" s="25"/>
-      <c r="H457" s="206"/>
+      <c r="H457" s="188"/>
       <c r="I457" s="32" t="s">
         <v>194</v>
       </c>
       <c r="J457" s="31">
         <v>1</v>
       </c>
-      <c r="K457" s="90">
+      <c r="K457" s="80">
         <v>23.8</v>
       </c>
     </row>
     <row r="458" spans="3:11" ht="36">
-      <c r="C458" s="207"/>
+      <c r="C458" s="190"/>
       <c r="D458" s="32" t="s">
         <v>185</v>
       </c>
       <c r="E458" s="31">
         <v>1</v>
       </c>
-      <c r="F458" s="90">
+      <c r="F458" s="80">
         <v>18.8</v>
       </c>
       <c r="G458" s="25"/>
-      <c r="H458" s="206"/>
+      <c r="H458" s="188"/>
       <c r="I458" s="32" t="s">
         <v>195</v>
       </c>
       <c r="J458" s="31">
         <v>1</v>
       </c>
-      <c r="K458" s="90">
+      <c r="K458" s="80">
         <v>23.8</v>
       </c>
     </row>
     <row r="459" spans="3:11" ht="36">
-      <c r="C459" s="207"/>
+      <c r="C459" s="190"/>
       <c r="D459" s="32" t="s">
         <v>186</v>
       </c>
       <c r="E459" s="31">
         <v>1</v>
       </c>
-      <c r="F459" s="90">
+      <c r="F459" s="80">
         <v>18.2</v>
       </c>
       <c r="G459" s="25"/>
-      <c r="H459" s="206"/>
+      <c r="H459" s="188"/>
       <c r="I459" s="32" t="s">
         <v>196</v>
       </c>
       <c r="J459" s="31">
         <v>1</v>
       </c>
-      <c r="K459" s="90">
+      <c r="K459" s="80">
         <v>22.9</v>
       </c>
     </row>
     <row r="460" spans="3:11" ht="54">
-      <c r="C460" s="207"/>
+      <c r="C460" s="190"/>
       <c r="D460" s="32" t="s">
         <v>187</v>
       </c>
       <c r="E460" s="31">
         <v>1</v>
       </c>
-      <c r="F460" s="90">
+      <c r="F460" s="80">
         <v>18.100000000000001</v>
       </c>
       <c r="G460" s="25"/>
-      <c r="H460" s="206"/>
+      <c r="H460" s="188"/>
       <c r="I460" s="32" t="s">
         <v>197</v>
       </c>
       <c r="J460" s="31">
         <v>1</v>
       </c>
-      <c r="K460" s="90">
+      <c r="K460" s="80">
         <v>22.2</v>
       </c>
     </row>
     <row r="461" spans="3:11" ht="18">
-      <c r="C461" s="207"/>
+      <c r="C461" s="190"/>
       <c r="D461" s="32" t="s">
         <v>188</v>
       </c>
       <c r="E461" s="31">
         <v>1</v>
       </c>
-      <c r="F461" s="90">
+      <c r="F461" s="80">
         <v>17.600000000000001</v>
       </c>
       <c r="G461" s="25"/>
-      <c r="H461" s="206"/>
+      <c r="H461" s="188"/>
       <c r="I461" s="32" t="s">
         <v>198</v>
       </c>
       <c r="J461" s="31">
         <v>1</v>
       </c>
-      <c r="K461" s="90">
+      <c r="K461" s="80">
         <v>21.6</v>
       </c>
     </row>
     <row r="462" spans="3:11" ht="36">
-      <c r="C462" s="207"/>
+      <c r="C462" s="190"/>
       <c r="D462" s="32" t="s">
         <v>189</v>
       </c>
       <c r="E462" s="31">
         <v>1</v>
       </c>
-      <c r="F462" s="90">
+      <c r="F462" s="80">
         <v>17.3</v>
       </c>
       <c r="G462" s="25"/>
-      <c r="H462" s="206"/>
+      <c r="H462" s="188"/>
       <c r="I462" s="32" t="s">
         <v>199</v>
       </c>
       <c r="J462" s="31">
         <v>1</v>
       </c>
-      <c r="K462" s="90">
+      <c r="K462" s="80">
         <v>21.5</v>
       </c>
     </row>
     <row r="463" spans="3:11" ht="36">
-      <c r="C463" s="207"/>
+      <c r="C463" s="190"/>
       <c r="D463" s="32" t="s">
         <v>190</v>
       </c>
       <c r="E463" s="31">
         <v>1</v>
       </c>
-      <c r="F463" s="90">
+      <c r="F463" s="80">
         <v>15.9</v>
       </c>
       <c r="G463" s="25"/>
-      <c r="H463" s="204"/>
+      <c r="H463" s="186"/>
       <c r="I463" s="32" t="s">
         <v>200</v>
       </c>
       <c r="J463" s="31">
         <v>1</v>
       </c>
-      <c r="K463" s="90">
+      <c r="K463" s="80">
         <v>20.9</v>
       </c>
     </row>
     <row r="464" spans="3:11" s="23" customFormat="1" ht="17">
-      <c r="C464" s="100" t="s">
+      <c r="C464" s="90" t="s">
         <v>201</v>
       </c>
       <c r="D464" s="36"/>
-      <c r="E464" s="85"/>
-      <c r="F464" s="101">
+      <c r="E464" s="75"/>
+      <c r="F464" s="91">
         <f>AVERAGE(F454:F463)</f>
         <v>19.43</v>
       </c>
@@ -37780,7 +38276,7 @@
       </c>
       <c r="I464" s="35"/>
       <c r="J464" s="35"/>
-      <c r="K464" s="102">
+      <c r="K464" s="92">
         <f>AVERAGE(K454:K463)</f>
         <v>22.99</v>
       </c>
@@ -37942,10 +38438,10 @@
       <c r="E479" s="23"/>
       <c r="F479" s="23"/>
       <c r="G479" s="25"/>
-      <c r="H479" s="197" t="s">
-        <v>263</v>
-      </c>
-      <c r="I479" s="197"/>
+      <c r="H479" s="189" t="s">
+        <v>262</v>
+      </c>
+      <c r="I479" s="189"/>
       <c r="J479" s="25"/>
       <c r="K479" s="23"/>
     </row>
@@ -37954,17 +38450,17 @@
       <c r="D480" s="23"/>
       <c r="E480" s="23"/>
       <c r="F480" s="23"/>
-      <c r="G480" s="124" t="s">
-        <v>264</v>
-      </c>
-      <c r="H480" s="124" t="s">
+      <c r="G480" s="112" t="s">
+        <v>263</v>
+      </c>
+      <c r="H480" s="112" t="s">
+        <v>260</v>
+      </c>
+      <c r="I480" s="112" t="s">
         <v>261</v>
       </c>
-      <c r="I480" s="124" t="s">
-        <v>262</v>
-      </c>
-      <c r="J480" s="124" t="s">
-        <v>267</v>
+      <c r="J480" s="112" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="481" spans="3:11" ht="17">
@@ -37973,7 +38469,7 @@
       <c r="E481" s="23"/>
       <c r="F481" s="23"/>
       <c r="G481" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H481" s="57">
         <v>69</v>
@@ -37981,7 +38477,7 @@
       <c r="I481" s="58">
         <v>16948</v>
       </c>
-      <c r="J481" s="132">
+      <c r="J481" s="120">
         <f>I481/(H481+I481)</f>
         <v>0.99594523123934886</v>
       </c>
@@ -37992,7 +38488,7 @@
       <c r="E482" s="23"/>
       <c r="F482" s="23"/>
       <c r="G482" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H482" s="57">
         <v>622</v>
@@ -38000,7 +38496,7 @@
       <c r="I482" s="58">
         <v>76242</v>
       </c>
-      <c r="J482" s="132">
+      <c r="J482" s="120">
         <f>I482/(I482+H482)</f>
         <v>0.99190778517901745</v>
       </c>
@@ -38257,31 +38753,31 @@
     </row>
     <row r="568" spans="3:12" ht="17">
       <c r="C568" s="25"/>
-      <c r="I568" s="197" t="s">
-        <v>277</v>
-      </c>
-      <c r="J568" s="197"/>
-      <c r="K568" s="197"/>
-      <c r="L568" s="108"/>
+      <c r="I568" s="189" t="s">
+        <v>273</v>
+      </c>
+      <c r="J568" s="189"/>
+      <c r="K568" s="189"/>
+      <c r="L568" s="98"/>
     </row>
     <row r="569" spans="3:12" ht="17">
       <c r="C569" s="25"/>
-      <c r="H569" s="124" t="s">
-        <v>278</v>
-      </c>
-      <c r="I569" s="124" t="s">
-        <v>279</v>
-      </c>
-      <c r="J569" s="124" t="s">
-        <v>280</v>
-      </c>
-      <c r="K569" s="124" t="s">
-        <v>281</v>
+      <c r="H569" s="112" t="s">
+        <v>274</v>
+      </c>
+      <c r="I569" s="112" t="s">
+        <v>275</v>
+      </c>
+      <c r="J569" s="112" t="s">
+        <v>276</v>
+      </c>
+      <c r="K569" s="112" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="570" spans="3:12" ht="36">
       <c r="C570" s="25"/>
-      <c r="H570" s="114" t="s">
+      <c r="H570" s="104" t="s">
         <v>129</v>
       </c>
       <c r="I570" s="57">
@@ -38290,13 +38786,13 @@
       <c r="J570" s="57">
         <v>81</v>
       </c>
-      <c r="K570" s="123">
+      <c r="K570" s="111">
         <v>70.513004128707095</v>
       </c>
     </row>
     <row r="571" spans="3:12" ht="54">
       <c r="C571" s="25"/>
-      <c r="H571" s="114" t="s">
+      <c r="H571" s="104" t="s">
         <v>130</v>
       </c>
       <c r="I571" s="57">
@@ -38305,13 +38801,13 @@
       <c r="J571" s="57">
         <v>21</v>
       </c>
-      <c r="K571" s="123">
+      <c r="K571" s="111">
         <v>19.503706622520401</v>
       </c>
     </row>
     <row r="572" spans="3:12" ht="18">
       <c r="C572" s="25"/>
-      <c r="H572" s="114" t="s">
+      <c r="H572" s="104" t="s">
         <v>131</v>
       </c>
       <c r="I572" s="57">
@@ -38320,13 +38816,13 @@
       <c r="J572" s="57">
         <v>81</v>
       </c>
-      <c r="K572" s="123">
+      <c r="K572" s="111">
         <v>51.486492998364</v>
       </c>
     </row>
     <row r="573" spans="3:12" ht="18">
       <c r="C573" s="25"/>
-      <c r="H573" s="114" t="s">
+      <c r="H573" s="104" t="s">
         <v>132</v>
       </c>
       <c r="I573" s="57">
@@ -38335,7 +38831,7 @@
       <c r="J573" s="57">
         <v>59</v>
       </c>
-      <c r="K573" s="123">
+      <c r="K573" s="111">
         <v>38.597506689742197</v>
       </c>
     </row>
@@ -38391,7 +38887,7 @@
       <c r="C590" s="25"/>
     </row>
     <row r="592" spans="3:10" ht="19">
-      <c r="C592" s="103" t="s">
+      <c r="C592" s="93" t="s">
         <v>203</v>
       </c>
       <c r="D592" s="28"/>
@@ -38534,13 +39030,13 @@
       <c r="C621" s="33"/>
     </row>
     <row r="623" spans="3:10" ht="16">
-      <c r="C623" s="115" t="s">
+      <c r="C623" s="105" t="s">
         <v>218</v>
       </c>
-      <c r="D623" s="115" t="s">
+      <c r="D623" s="105" t="s">
         <v>207</v>
       </c>
-      <c r="E623" s="115" t="s">
+      <c r="E623" s="105" t="s">
         <v>174</v>
       </c>
     </row>
@@ -38655,8 +39151,8 @@
       </c>
     </row>
     <row r="641" spans="3:9" ht="19">
-      <c r="C641" s="103" t="s">
-        <v>283</v>
+      <c r="C641" s="93" t="s">
+        <v>279</v>
       </c>
       <c r="D641" s="28"/>
       <c r="E641" s="28"/>
@@ -38666,14 +39162,14 @@
       <c r="I641" s="28"/>
     </row>
     <row r="647" spans="3:9" ht="17">
-      <c r="C647" s="124" t="s">
+      <c r="C647" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="D647" s="124" t="s">
+      <c r="D647" s="112" t="s">
         <v>207</v>
       </c>
-      <c r="E647" s="124" t="s">
-        <v>285</v>
+      <c r="E647" s="112" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="648" spans="3:9" ht="17">
@@ -38683,7 +39179,7 @@
       <c r="D648" s="58">
         <v>449628</v>
       </c>
-      <c r="E648" s="130">
+      <c r="E648" s="118">
         <v>3597450</v>
       </c>
     </row>
@@ -38694,18 +39190,18 @@
       <c r="D649" s="58">
         <v>260787</v>
       </c>
-      <c r="E649" s="130">
+      <c r="E649" s="118">
         <v>2176188.5</v>
       </c>
     </row>
     <row r="650" spans="3:9" ht="17">
       <c r="C650" s="57" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D650" s="58">
         <v>137163</v>
       </c>
-      <c r="E650" s="130">
+      <c r="E650" s="118">
         <v>585459.30000000005</v>
       </c>
     </row>
@@ -38716,7 +39212,7 @@
       <c r="D651" s="58">
         <v>124629</v>
       </c>
-      <c r="E651" s="130">
+      <c r="E651" s="118">
         <v>958098.4</v>
       </c>
     </row>
@@ -38727,146 +39223,146 @@
       <c r="D652" s="58">
         <v>108533</v>
       </c>
-      <c r="E652" s="130">
+      <c r="E652" s="118">
         <v>834929.3</v>
       </c>
     </row>
     <row r="660" spans="3:8" ht="19">
-      <c r="C660" s="124" t="s">
+      <c r="C660" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="D660" s="124" t="s">
+      <c r="D660" s="112" t="s">
         <v>171</v>
       </c>
-      <c r="E660" s="124" t="s">
+      <c r="E660" s="112" t="s">
         <v>207</v>
       </c>
-      <c r="F660" s="124" t="s">
-        <v>286</v>
+      <c r="F660" s="112" t="s">
+        <v>282</v>
       </c>
       <c r="H660" s="24"/>
     </row>
     <row r="661" spans="3:8" ht="18">
-      <c r="C661" s="198" t="s">
-        <v>254</v>
-      </c>
-      <c r="D661" s="131" t="s">
+      <c r="C661" s="194" t="s">
+        <v>253</v>
+      </c>
+      <c r="D661" s="119" t="s">
         <v>153</v>
       </c>
       <c r="E661" s="58">
         <v>22953</v>
       </c>
-      <c r="F661" s="130">
+      <c r="F661" s="118">
         <v>282321.90000000002</v>
       </c>
     </row>
     <row r="662" spans="3:8" ht="36">
-      <c r="C662" s="199"/>
-      <c r="D662" s="131" t="s">
+      <c r="C662" s="195"/>
+      <c r="D662" s="119" t="s">
         <v>154</v>
       </c>
       <c r="E662" s="58">
         <v>17899</v>
       </c>
-      <c r="F662" s="130">
+      <c r="F662" s="118">
         <v>184359.7</v>
       </c>
     </row>
     <row r="663" spans="3:8" ht="18">
-      <c r="C663" s="199"/>
-      <c r="D663" s="131" t="s">
+      <c r="C663" s="195"/>
+      <c r="D663" s="119" t="s">
         <v>155</v>
       </c>
       <c r="E663" s="58">
         <v>12316</v>
       </c>
-      <c r="F663" s="130">
+      <c r="F663" s="118">
         <v>89906.804999999993</v>
       </c>
     </row>
     <row r="664" spans="3:8" ht="18">
-      <c r="C664" s="199"/>
-      <c r="D664" s="131" t="s">
+      <c r="C664" s="195"/>
+      <c r="D664" s="119" t="s">
         <v>156</v>
       </c>
       <c r="E664" s="58">
         <v>11605</v>
       </c>
-      <c r="F664" s="130">
+      <c r="F664" s="118">
         <v>95161</v>
       </c>
     </row>
     <row r="665" spans="3:8" ht="18">
-      <c r="C665" s="199"/>
-      <c r="D665" s="131" t="s">
+      <c r="C665" s="195"/>
+      <c r="D665" s="119" t="s">
         <v>157</v>
       </c>
       <c r="E665" s="58">
         <v>9637</v>
       </c>
-      <c r="F665" s="130">
+      <c r="F665" s="118">
         <v>38548</v>
       </c>
     </row>
     <row r="666" spans="3:8" ht="18">
-      <c r="C666" s="199"/>
-      <c r="D666" s="131" t="s">
+      <c r="C666" s="195"/>
+      <c r="D666" s="119" t="s">
         <v>158</v>
       </c>
       <c r="E666" s="58">
         <v>8403</v>
       </c>
-      <c r="F666" s="130">
+      <c r="F666" s="118">
         <v>52938.902000000002</v>
       </c>
     </row>
     <row r="667" spans="3:8" ht="18">
-      <c r="C667" s="199"/>
-      <c r="D667" s="131" t="s">
+      <c r="C667" s="195"/>
+      <c r="D667" s="119" t="s">
         <v>159</v>
       </c>
       <c r="E667" s="58">
         <v>7123</v>
       </c>
-      <c r="F667" s="130">
+      <c r="F667" s="118">
         <v>99722</v>
       </c>
     </row>
     <row r="668" spans="3:8" ht="18">
-      <c r="C668" s="199"/>
-      <c r="D668" s="131" t="s">
+      <c r="C668" s="195"/>
+      <c r="D668" s="119" t="s">
         <v>160</v>
       </c>
       <c r="E668" s="58">
         <v>6671</v>
       </c>
-      <c r="F668" s="130">
+      <c r="F668" s="118">
         <v>8672.2999999999993</v>
       </c>
     </row>
     <row r="669" spans="3:8" ht="18">
-      <c r="C669" s="200"/>
-      <c r="D669" s="131" t="s">
+      <c r="C669" s="196"/>
+      <c r="D669" s="119" t="s">
         <v>161</v>
       </c>
       <c r="E669" s="58">
         <v>6634</v>
       </c>
-      <c r="F669" s="130">
+      <c r="F669" s="118">
         <v>97519.8</v>
       </c>
     </row>
     <row r="670" spans="3:8" ht="18">
-      <c r="C670" s="110" t="s">
-        <v>290</v>
-      </c>
-      <c r="D670" s="131" t="s">
+      <c r="C670" s="100" t="s">
+        <v>286</v>
+      </c>
+      <c r="D670" s="119" t="s">
         <v>177</v>
       </c>
       <c r="E670" s="58">
         <v>6455</v>
       </c>
-      <c r="F670" s="130">
+      <c r="F670" s="118">
         <v>82624</v>
       </c>
     </row>
@@ -38899,17 +39395,17 @@
       <c r="G720" s="23"/>
       <c r="H720" s="23"/>
     </row>
-    <row r="721" spans="3:13" ht="17">
+    <row r="721" spans="3:14" ht="17">
       <c r="C721" s="25"/>
       <c r="D721" s="25"/>
-      <c r="E721" s="205" t="s">
+      <c r="E721" s="187" t="s">
         <v>141</v>
       </c>
-      <c r="F721" s="205"/>
-      <c r="G721" s="205"/>
-      <c r="H721" s="205"/>
-    </row>
-    <row r="722" spans="3:13" ht="18">
+      <c r="F721" s="187"/>
+      <c r="G721" s="187"/>
+      <c r="H721" s="187"/>
+    </row>
+    <row r="722" spans="3:14" ht="18">
       <c r="C722" s="36" t="s">
         <v>135</v>
       </c>
@@ -38930,7 +39426,7 @@
       </c>
       <c r="J722" s="23"/>
     </row>
-    <row r="723" spans="3:13" ht="18">
+    <row r="723" spans="3:14" ht="18">
       <c r="C723" s="32" t="s">
         <v>129</v>
       </c>
@@ -38951,7 +39447,7 @@
       </c>
       <c r="J723" s="23"/>
     </row>
-    <row r="724" spans="3:13" ht="36">
+    <row r="724" spans="3:14" ht="36">
       <c r="C724" s="32" t="s">
         <v>130</v>
       </c>
@@ -38972,28 +39468,28 @@
       </c>
       <c r="J724" s="23"/>
     </row>
-    <row r="725" spans="3:13" ht="18">
-      <c r="C725" s="95" t="s">
+    <row r="725" spans="3:14" ht="18">
+      <c r="C725" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="D725" s="107">
+      <c r="D725" s="97">
         <v>2327</v>
       </c>
-      <c r="E725" s="105">
+      <c r="E725" s="95">
         <v>41746</v>
       </c>
-      <c r="F725" s="105">
+      <c r="F725" s="95">
         <v>220987</v>
       </c>
-      <c r="G725" s="106">
+      <c r="G725" s="96">
         <v>107151</v>
       </c>
-      <c r="H725" s="105">
+      <c r="H725" s="95">
         <v>103702</v>
       </c>
       <c r="J725" s="23"/>
     </row>
-    <row r="726" spans="3:13" ht="18">
+    <row r="726" spans="3:14" ht="18">
       <c r="C726" s="32" t="s">
         <v>134</v>
       </c>
@@ -39013,24 +39509,24 @@
         <v>96705</v>
       </c>
     </row>
-    <row r="728" spans="3:13" ht="17">
+    <row r="728" spans="3:14" ht="17">
       <c r="C728" s="30"/>
     </row>
-    <row r="729" spans="3:13" ht="17">
+    <row r="729" spans="3:14" ht="17">
       <c r="C729" s="30"/>
     </row>
-    <row r="730" spans="3:13" ht="17">
+    <row r="730" spans="3:14" ht="17">
       <c r="C730" s="30"/>
     </row>
-    <row r="731" spans="3:13" ht="17">
+    <row r="731" spans="3:14" ht="17">
       <c r="C731" s="30"/>
     </row>
-    <row r="732" spans="3:13" ht="17">
+    <row r="732" spans="3:14" ht="17">
       <c r="C732" s="30"/>
     </row>
-    <row r="734" spans="3:13" ht="19" customHeight="1">
-      <c r="C734" s="133" t="s">
-        <v>291</v>
+    <row r="734" spans="3:14" ht="19" customHeight="1">
+      <c r="C734" s="121" t="s">
+        <v>304</v>
       </c>
       <c r="D734" s="28"/>
       <c r="E734" s="28"/>
@@ -39042,56 +39538,71 @@
       <c r="K734" s="28"/>
       <c r="L734" s="28"/>
       <c r="M734" s="28"/>
-    </row>
-    <row r="735" spans="3:13" ht="17">
-      <c r="C735" s="108"/>
-    </row>
-    <row r="736" spans="3:13" ht="17">
-      <c r="C736" s="108"/>
+      <c r="N734" s="28"/>
+    </row>
+    <row r="735" spans="3:14" ht="17">
+      <c r="C735" s="98"/>
+    </row>
+    <row r="736" spans="3:14" ht="17">
+      <c r="C736" s="98"/>
     </row>
     <row r="737" spans="3:11" ht="17">
-      <c r="C737" s="108"/>
+      <c r="C737" s="98"/>
     </row>
     <row r="738" spans="3:11" ht="36">
-      <c r="C738" s="120" t="s">
+      <c r="C738" s="198" t="s">
         <v>225</v>
       </c>
-      <c r="D738" s="120" t="s">
+      <c r="D738" s="198" t="s">
         <v>207</v>
       </c>
-      <c r="E738" s="121" t="s">
+      <c r="E738" s="199" t="s">
         <v>226</v>
       </c>
-      <c r="F738" s="120" t="s">
+      <c r="F738" s="198" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="739" spans="3:11" ht="17">
-      <c r="C739" s="62" t="s">
+      <c r="C739" s="200" t="s">
+        <v>224</v>
+      </c>
+      <c r="D739" s="201">
+        <v>10442820</v>
+      </c>
+      <c r="E739" s="202">
+        <v>30.757346999999999</v>
+      </c>
+      <c r="F739" s="202">
+        <v>37.270439214583199</v>
+      </c>
+    </row>
+    <row r="740" spans="3:11" ht="17">
+      <c r="C740" s="203" t="s">
+        <v>305</v>
+      </c>
+      <c r="D740" s="204">
+        <v>21666199</v>
+      </c>
+      <c r="E740" s="206">
+        <v>68.339320000000001</v>
+      </c>
+      <c r="F740" s="205">
+        <v>62.163630103438699</v>
+      </c>
+    </row>
+    <row r="741" spans="3:11" ht="17">
+      <c r="C741" s="207" t="s">
         <v>223</v>
       </c>
-      <c r="D739" s="63">
-        <v>258443</v>
-      </c>
-      <c r="E739" s="64">
-        <v>0.78797519999999999</v>
-      </c>
-      <c r="F739" s="64">
-        <v>0.486884665557759</v>
-      </c>
-    </row>
-    <row r="740" spans="3:11" ht="17">
-      <c r="C740" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="D740" s="61">
-        <v>32146416</v>
-      </c>
-      <c r="E740" s="59">
-        <v>99.212029999999999</v>
-      </c>
-      <c r="F740" s="59">
-        <v>99.513115334442205</v>
+      <c r="D741" s="208">
+        <v>295840</v>
+      </c>
+      <c r="E741" s="209">
+        <v>0.90333680000000005</v>
+      </c>
+      <c r="F741" s="210">
+        <v>0.56593068197799301</v>
       </c>
     </row>
     <row r="752" spans="3:11" ht="16">
@@ -39178,327 +39689,477 @@
       <c r="H786" s="34"/>
     </row>
     <row r="787" spans="3:11" ht="17">
-      <c r="C787" s="195" t="s">
+      <c r="C787" s="192" t="s">
         <v>233</v>
       </c>
-      <c r="D787" s="195"/>
-      <c r="E787" s="195"/>
-      <c r="F787" s="195"/>
-      <c r="G787" s="71"/>
-      <c r="H787" s="196" t="s">
+      <c r="D787" s="192"/>
+      <c r="E787" s="192"/>
+      <c r="F787" s="192"/>
+      <c r="G787" s="62"/>
+      <c r="H787" s="193" t="s">
         <v>234</v>
       </c>
-      <c r="I787" s="196"/>
-      <c r="J787" s="196"/>
-      <c r="K787" s="196"/>
+      <c r="I787" s="193"/>
+      <c r="J787" s="193"/>
+      <c r="K787" s="193"/>
     </row>
     <row r="788" spans="3:11" ht="18">
-      <c r="C788" s="109" t="s">
+      <c r="C788" s="99" t="s">
         <v>172</v>
       </c>
-      <c r="D788" s="113" t="s">
+      <c r="D788" s="103" t="s">
         <v>171</v>
       </c>
-      <c r="E788" s="109" t="s">
+      <c r="E788" s="99" t="s">
         <v>207</v>
       </c>
-      <c r="F788" s="109" t="s">
+      <c r="F788" s="99" t="s">
         <v>174</v>
       </c>
       <c r="G788" s="21"/>
-      <c r="H788" s="66" t="s">
+      <c r="H788" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="I788" s="66" t="s">
+      <c r="I788" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="J788" s="72" t="s">
+      <c r="J788" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="K788" s="66" t="s">
+      <c r="K788" s="59" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="789" spans="3:11" ht="18">
-      <c r="C789" s="194" t="s">
+      <c r="C789" s="191" t="s">
         <v>152</v>
       </c>
-      <c r="D789" s="114" t="s">
+      <c r="D789" s="104" t="s">
         <v>153</v>
       </c>
       <c r="E789" s="58">
         <v>469258</v>
       </c>
-      <c r="F789" s="111">
+      <c r="F789" s="101">
         <v>5771873.5</v>
       </c>
-      <c r="G789" s="70"/>
-      <c r="H789" s="68" t="s">
+      <c r="G789" s="61"/>
+      <c r="H789" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="I789" s="68" t="s">
+      <c r="I789" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="J789" s="73">
+      <c r="J789" s="216">
         <v>3307</v>
       </c>
-      <c r="K789" s="67">
+      <c r="K789" s="101">
         <v>40676.1</v>
       </c>
     </row>
     <row r="790" spans="3:11" ht="36">
-      <c r="C790" s="194"/>
-      <c r="D790" s="114" t="s">
+      <c r="C790" s="191"/>
+      <c r="D790" s="104" t="s">
         <v>154</v>
       </c>
       <c r="E790" s="58">
         <v>377488</v>
       </c>
-      <c r="F790" s="111">
+      <c r="F790" s="101">
         <v>3888126.5</v>
       </c>
-      <c r="G790" s="70"/>
-      <c r="H790" s="68" t="s">
+      <c r="G790" s="61"/>
+      <c r="H790" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="I790" s="68" t="s">
+      <c r="I790" s="104" t="s">
         <v>228</v>
       </c>
-      <c r="J790" s="73">
+      <c r="J790" s="216">
         <v>2364</v>
       </c>
-      <c r="K790" s="67">
+      <c r="K790" s="101">
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="3:11" ht="18">
-      <c r="C791" s="194"/>
-      <c r="D791" s="114" t="s">
+    <row r="791" spans="3:11" ht="36">
+      <c r="C791" s="191"/>
+      <c r="D791" s="104" t="s">
         <v>155</v>
       </c>
       <c r="E791" s="58">
         <v>263993</v>
       </c>
-      <c r="F791" s="111">
+      <c r="F791" s="101">
         <v>1927149</v>
       </c>
-      <c r="G791" s="70"/>
-      <c r="H791" s="68" t="s">
+      <c r="G791" s="61"/>
+      <c r="H791" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="I791" s="68" t="s">
+      <c r="I791" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="J791" s="73">
+      <c r="J791" s="216">
         <v>1962</v>
       </c>
-      <c r="K791" s="67">
+      <c r="K791" s="101">
         <v>20208.599999999999</v>
       </c>
     </row>
     <row r="792" spans="3:11" ht="18">
-      <c r="C792" s="194"/>
-      <c r="D792" s="114" t="s">
+      <c r="C792" s="191"/>
+      <c r="D792" s="104" t="s">
         <v>156</v>
       </c>
       <c r="E792" s="58">
         <v>241535</v>
       </c>
-      <c r="F792" s="111">
+      <c r="F792" s="101">
         <v>1980587</v>
       </c>
-      <c r="G792" s="70"/>
-      <c r="H792" s="68" t="s">
+      <c r="G792" s="61"/>
+      <c r="H792" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="I792" s="68" t="s">
+      <c r="I792" s="104" t="s">
         <v>229</v>
       </c>
-      <c r="J792" s="73">
+      <c r="J792" s="216">
         <v>1023</v>
       </c>
-      <c r="K792" s="67">
+      <c r="K792" s="101">
         <v>9411.6</v>
       </c>
     </row>
     <row r="793" spans="3:11" ht="18">
-      <c r="C793" s="194"/>
-      <c r="D793" s="114" t="s">
+      <c r="C793" s="191"/>
+      <c r="D793" s="104" t="s">
         <v>157</v>
       </c>
       <c r="E793" s="58">
         <v>213084</v>
       </c>
-      <c r="F793" s="111">
+      <c r="F793" s="101">
         <v>852336</v>
       </c>
-      <c r="G793" s="70"/>
-      <c r="H793" s="68" t="s">
+      <c r="G793" s="61"/>
+      <c r="H793" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="I793" s="68" t="s">
+      <c r="I793" s="104" t="s">
         <v>168</v>
       </c>
-      <c r="J793" s="73">
+      <c r="J793" s="216">
         <v>952</v>
       </c>
-      <c r="K793" s="67">
+      <c r="K793" s="101">
         <v>8377.6010000000006</v>
       </c>
     </row>
-    <row r="794" spans="3:11" ht="34">
-      <c r="C794" s="194"/>
-      <c r="D794" s="114" t="s">
+    <row r="794" spans="3:11" ht="36">
+      <c r="C794" s="191"/>
+      <c r="D794" s="104" t="s">
         <v>158</v>
       </c>
       <c r="E794" s="58">
         <v>176115</v>
       </c>
-      <c r="F794" s="111">
+      <c r="F794" s="101">
         <v>1109524.5</v>
       </c>
-      <c r="G794" s="70"/>
-      <c r="H794" s="68" t="s">
+      <c r="G794" s="61"/>
+      <c r="H794" s="104" t="s">
         <v>235</v>
       </c>
-      <c r="I794" s="68" t="s">
+      <c r="I794" s="104" t="s">
         <v>230</v>
       </c>
-      <c r="J794" s="73">
+      <c r="J794" s="216">
         <v>944</v>
       </c>
-      <c r="K794" s="67">
+      <c r="K794" s="101">
         <v>4908.8</v>
       </c>
     </row>
     <row r="795" spans="3:11" ht="18">
-      <c r="C795" s="194"/>
-      <c r="D795" s="114" t="s">
+      <c r="C795" s="191"/>
+      <c r="D795" s="104" t="s">
         <v>159</v>
       </c>
       <c r="E795" s="58">
         <v>151834</v>
       </c>
-      <c r="F795" s="111">
+      <c r="F795" s="101">
         <v>2125676</v>
       </c>
-      <c r="G795" s="70"/>
-      <c r="H795" s="68" t="s">
+      <c r="G795" s="61"/>
+      <c r="H795" s="104" t="s">
         <v>205</v>
       </c>
-      <c r="I795" s="68" t="s">
+      <c r="I795" s="104" t="s">
         <v>231</v>
       </c>
-      <c r="J795" s="73">
+      <c r="J795" s="216">
         <v>929</v>
       </c>
-      <c r="K795" s="67">
+      <c r="K795" s="101">
         <v>9847.4</v>
       </c>
     </row>
     <row r="796" spans="3:11" ht="18">
-      <c r="C796" s="194"/>
-      <c r="D796" s="114" t="s">
+      <c r="C796" s="191"/>
+      <c r="D796" s="104" t="s">
         <v>160</v>
       </c>
       <c r="E796" s="58">
         <v>142365</v>
       </c>
-      <c r="F796" s="111">
+      <c r="F796" s="101">
         <v>185074.5</v>
       </c>
-      <c r="G796" s="70"/>
-      <c r="H796" s="68" t="s">
+      <c r="G796" s="61"/>
+      <c r="H796" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="I796" s="68" t="s">
+      <c r="I796" s="104" t="s">
         <v>165</v>
       </c>
-      <c r="J796" s="73">
+      <c r="J796" s="216">
         <v>894</v>
       </c>
-      <c r="K796" s="67">
+      <c r="K796" s="101">
         <v>1430.4</v>
       </c>
     </row>
     <row r="797" spans="3:11" ht="18">
-      <c r="C797" s="194"/>
-      <c r="D797" s="114" t="s">
+      <c r="C797" s="191"/>
+      <c r="D797" s="104" t="s">
         <v>161</v>
       </c>
       <c r="E797" s="58">
         <v>139774</v>
       </c>
-      <c r="F797" s="111">
+      <c r="F797" s="101">
         <v>2054677.8</v>
       </c>
-      <c r="G797" s="70"/>
-      <c r="H797" s="68" t="s">
+      <c r="G797" s="61"/>
+      <c r="H797" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="I797" s="68" t="s">
+      <c r="I797" s="104" t="s">
         <v>161</v>
       </c>
-      <c r="J797" s="73">
+      <c r="J797" s="216">
         <v>853</v>
       </c>
-      <c r="K797" s="67">
+      <c r="K797" s="101">
         <v>12539.1</v>
       </c>
     </row>
     <row r="798" spans="3:11" ht="18">
-      <c r="C798" s="112" t="s">
+      <c r="C798" s="102" t="s">
         <v>176</v>
       </c>
-      <c r="D798" s="114" t="s">
+      <c r="D798" s="104" t="s">
         <v>177</v>
       </c>
       <c r="E798" s="58">
         <v>137687</v>
       </c>
-      <c r="F798" s="111">
+      <c r="F798" s="101">
         <v>1762393.6</v>
       </c>
-      <c r="G798" s="70"/>
-      <c r="H798" s="65" t="s">
+      <c r="G798" s="61"/>
+      <c r="H798" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="I798" s="65" t="s">
+      <c r="I798" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="J798" s="65">
+      <c r="J798" s="57">
         <v>846</v>
       </c>
-      <c r="K798" s="67">
+      <c r="K798" s="101">
         <v>5668.1997000000001</v>
       </c>
     </row>
     <row r="799" spans="3:11" ht="17">
-      <c r="C799" s="116"/>
-      <c r="D799" s="117"/>
-      <c r="E799" s="118"/>
-      <c r="F799" s="119"/>
-      <c r="G799" s="70"/>
+      <c r="C799" s="106"/>
+      <c r="D799" s="107"/>
+      <c r="E799" s="108"/>
+      <c r="F799" s="109"/>
+      <c r="G799" s="61"/>
       <c r="H799" s="47"/>
       <c r="I799" s="47"/>
       <c r="J799" s="47"/>
-      <c r="K799" s="70"/>
+      <c r="K799" s="61"/>
     </row>
     <row r="800" spans="3:11" ht="19">
       <c r="E800" s="27"/>
     </row>
     <row r="801" spans="3:8" ht="19">
-      <c r="C801" s="69"/>
+      <c r="C801" s="60"/>
       <c r="D801" s="27"/>
       <c r="H801" s="21"/>
     </row>
+    <row r="809" spans="3:8" ht="17">
+      <c r="C809" s="192" t="s">
+        <v>306</v>
+      </c>
+      <c r="D809" s="192"/>
+      <c r="E809" s="192"/>
+      <c r="F809" s="192"/>
+    </row>
+    <row r="810" spans="3:8" ht="18">
+      <c r="C810" s="211" t="s">
+        <v>172</v>
+      </c>
+      <c r="D810" s="212" t="s">
+        <v>171</v>
+      </c>
+      <c r="E810" s="211" t="s">
+        <v>207</v>
+      </c>
+      <c r="F810" s="211" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="811" spans="3:8" ht="17">
+      <c r="C811" s="213" t="s">
+        <v>152</v>
+      </c>
+      <c r="D811" s="200" t="s">
+        <v>153</v>
+      </c>
+      <c r="E811" s="201">
+        <v>329480</v>
+      </c>
+      <c r="F811" s="214">
+        <v>4052604</v>
+      </c>
+    </row>
+    <row r="812" spans="3:8" ht="17">
+      <c r="C812" s="213"/>
+      <c r="D812" s="200" t="s">
+        <v>154</v>
+      </c>
+      <c r="E812" s="201">
+        <v>253362</v>
+      </c>
+      <c r="F812" s="214">
+        <v>2609628.7999999998</v>
+      </c>
+    </row>
+    <row r="813" spans="3:8" ht="17">
+      <c r="C813" s="213"/>
+      <c r="D813" s="200" t="s">
+        <v>155</v>
+      </c>
+      <c r="E813" s="201">
+        <v>182236</v>
+      </c>
+      <c r="F813" s="214">
+        <v>1330322.8999999999</v>
+      </c>
+    </row>
+    <row r="814" spans="3:8" ht="17">
+      <c r="C814" s="213"/>
+      <c r="D814" s="200" t="s">
+        <v>156</v>
+      </c>
+      <c r="E814" s="201">
+        <v>168045</v>
+      </c>
+      <c r="F814" s="214">
+        <v>1377969</v>
+      </c>
+    </row>
+    <row r="815" spans="3:8" ht="17">
+      <c r="C815" s="213"/>
+      <c r="D815" s="200" t="s">
+        <v>157</v>
+      </c>
+      <c r="E815" s="201">
+        <v>145773</v>
+      </c>
+      <c r="F815" s="214">
+        <v>583092</v>
+      </c>
+    </row>
+    <row r="816" spans="3:8" ht="17">
+      <c r="C816" s="213"/>
+      <c r="D816" s="200" t="s">
+        <v>158</v>
+      </c>
+      <c r="E816" s="201">
+        <v>124083</v>
+      </c>
+      <c r="F816" s="214">
+        <v>781722.94</v>
+      </c>
+    </row>
+    <row r="817" spans="3:6" ht="17">
+      <c r="C817" s="213"/>
+      <c r="D817" s="200" t="s">
+        <v>159</v>
+      </c>
+      <c r="E817" s="201">
+        <v>109669</v>
+      </c>
+      <c r="F817" s="214">
+        <v>1535366</v>
+      </c>
+    </row>
+    <row r="818" spans="3:6" ht="17">
+      <c r="C818" s="213"/>
+      <c r="D818" s="200" t="s">
+        <v>161</v>
+      </c>
+      <c r="E818" s="201">
+        <v>101606</v>
+      </c>
+      <c r="F818" s="214">
+        <v>1493608.1</v>
+      </c>
+    </row>
+    <row r="819" spans="3:6" ht="17">
+      <c r="C819" s="215" t="s">
+        <v>176</v>
+      </c>
+      <c r="D819" s="200" t="s">
+        <v>177</v>
+      </c>
+      <c r="E819" s="201">
+        <v>99844</v>
+      </c>
+      <c r="F819" s="214">
+        <v>1278003.2</v>
+      </c>
+    </row>
+    <row r="820" spans="3:6" ht="17">
+      <c r="C820" s="215" t="s">
+        <v>152</v>
+      </c>
+      <c r="D820" s="200" t="s">
+        <v>162</v>
+      </c>
+      <c r="E820" s="201">
+        <v>92328</v>
+      </c>
+      <c r="F820" s="214">
+        <v>406243.22</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="C420:C428"/>
-    <mergeCell ref="C418:F418"/>
-    <mergeCell ref="H418:K418"/>
-    <mergeCell ref="H427:H428"/>
+  <mergeCells count="19">
+    <mergeCell ref="C809:F809"/>
+    <mergeCell ref="C811:C818"/>
+    <mergeCell ref="C789:C797"/>
+    <mergeCell ref="C787:F787"/>
+    <mergeCell ref="H787:K787"/>
+    <mergeCell ref="I568:K568"/>
+    <mergeCell ref="C661:C669"/>
     <mergeCell ref="E721:H721"/>
     <mergeCell ref="H420:H425"/>
     <mergeCell ref="H479:I479"/>
@@ -39506,11 +40167,11 @@
     <mergeCell ref="C454:C463"/>
     <mergeCell ref="H452:K452"/>
     <mergeCell ref="H454:H463"/>
-    <mergeCell ref="C789:C797"/>
-    <mergeCell ref="C787:F787"/>
-    <mergeCell ref="H787:K787"/>
-    <mergeCell ref="I568:K568"/>
-    <mergeCell ref="C661:C669"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="C420:C428"/>
+    <mergeCell ref="C418:F418"/>
+    <mergeCell ref="H418:K418"/>
+    <mergeCell ref="H427:H428"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q1" location="'Title Page'!A1" display="Title page" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
@@ -39525,8 +40186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:Q47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView showGridLines="0" topLeftCell="A39" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -39549,136 +40210,136 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="17">
-      <c r="B28" s="125" t="s">
+      <c r="B28" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="126" t="s">
+      <c r="C28" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="126" t="s">
+      <c r="D28" s="114" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="102">
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C29" s="104" t="s">
+      <c r="C29" s="94" t="s">
         <v>238</v>
       </c>
-      <c r="D29" s="104" t="s">
+      <c r="D29" s="94" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="51">
-      <c r="B30" s="104" t="s">
+      <c r="B30" s="94" t="s">
         <v>240</v>
       </c>
-      <c r="C30" s="104" t="s">
+      <c r="C30" s="94" t="s">
         <v>241</v>
       </c>
-      <c r="D30" s="127" t="s">
+      <c r="D30" s="115" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="51">
-      <c r="B31" s="104" t="s">
+      <c r="B31" s="94" t="s">
         <v>243</v>
       </c>
-      <c r="C31" s="104" t="s">
+      <c r="C31" s="217" t="s">
+        <v>307</v>
+      </c>
+      <c r="D31" s="94" t="s">
         <v>246</v>
       </c>
-      <c r="D31" s="104" t="s">
+    </row>
+    <row r="32" spans="2:4" ht="34">
+      <c r="B32" s="94" t="s">
+        <v>252</v>
+      </c>
+      <c r="C32" s="94" t="s">
+        <v>278</v>
+      </c>
+      <c r="D32" s="115" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="34">
-      <c r="B32" s="104" t="s">
-        <v>253</v>
-      </c>
-      <c r="C32" s="104" t="s">
-        <v>282</v>
-      </c>
-      <c r="D32" s="127" t="s">
+    <row r="33" spans="2:5" ht="170">
+      <c r="B33" s="94" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="D33" s="94" t="s">
+        <v>251</v>
+      </c>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="2:5" ht="85">
+      <c r="B34" s="94" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" ht="170">
-      <c r="B33" s="104" t="s">
-        <v>250</v>
-      </c>
-      <c r="C33" s="104" t="s">
+      <c r="C34" s="94" t="s">
         <v>256</v>
       </c>
-      <c r="D33" s="104" t="s">
-        <v>252</v>
-      </c>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="2:5" ht="85">
-      <c r="B34" s="104" t="s">
-        <v>249</v>
-      </c>
-      <c r="C34" s="104" t="s">
+      <c r="D34" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="D34" s="104" t="s">
-        <v>258</v>
-      </c>
     </row>
     <row r="35" spans="2:5" ht="204">
-      <c r="B35" s="104" t="s">
+      <c r="B35" s="94" t="s">
+        <v>267</v>
+      </c>
+      <c r="C35" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="D35" s="94" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="255">
+      <c r="B36" s="94" t="s">
+        <v>270</v>
+      </c>
+      <c r="C36" s="94" t="s">
+        <v>283</v>
+      </c>
+      <c r="D36" s="94" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="187">
+      <c r="B37" s="110" t="s">
         <v>268</v>
       </c>
-      <c r="C35" s="104" t="s">
-        <v>265</v>
-      </c>
-      <c r="D35" s="104" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="255">
-      <c r="B36" s="104" t="s">
-        <v>271</v>
-      </c>
-      <c r="C36" s="104" t="s">
+      <c r="C37" s="116" t="s">
+        <v>284</v>
+      </c>
+      <c r="D37" s="110" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="187">
+      <c r="B38" s="217" t="s">
+        <v>308</v>
+      </c>
+      <c r="C38" s="217" t="s">
+        <v>310</v>
+      </c>
+      <c r="D38" s="217" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="136">
+      <c r="B39" s="217" t="s">
+        <v>311</v>
+      </c>
+      <c r="C39" s="94" t="s">
+        <v>272</v>
+      </c>
+      <c r="D39" s="217" t="s">
         <v>287</v>
-      </c>
-      <c r="D36" s="104" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="187">
-      <c r="B37" s="122" t="s">
-        <v>269</v>
-      </c>
-      <c r="C37" s="128" t="s">
-        <v>288</v>
-      </c>
-      <c r="D37" s="122" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="187">
-      <c r="B38" s="104" t="s">
-        <v>272</v>
-      </c>
-      <c r="C38" s="104" t="s">
-        <v>274</v>
-      </c>
-      <c r="D38" s="104" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" ht="136">
-      <c r="B39" s="104" t="s">
-        <v>273</v>
-      </c>
-      <c r="C39" s="104" t="s">
-        <v>276</v>
-      </c>
-      <c r="D39" s="104" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="40" spans="2:5">
@@ -39962,7 +40623,7 @@
         <v>35</v>
       </c>
       <c r="M1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="N1" t="s">
         <v>35</v>
@@ -40103,17 +40764,17 @@
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="209" t="s">
+      <c r="A8" s="197" t="s">
         <v>179</v>
       </c>
-      <c r="B8" s="209"/>
-      <c r="C8" s="209"/>
-      <c r="D8" s="209"/>
-      <c r="E8" s="209"/>
-      <c r="F8" s="209"/>
-      <c r="G8" s="209"/>
-      <c r="H8" s="209"/>
-      <c r="I8" s="209"/>
+      <c r="B8" s="197"/>
+      <c r="C8" s="197"/>
+      <c r="D8" s="197"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="197"/>
       <c r="M8">
         <v>24</v>
       </c>
